--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2019.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2019.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.025*"foreign" + 0.020*"exchange" + 0.019*"yes" + 0.017*"fund" + 0.012*"bank" + 0.012*"currency" + 0.012*"resident" + 0.012*"monetary" + 0.011*"investment" + 0.011*"nonresident"</t>
-  </si>
-  <si>
-    <t>0.014*"exchange" + 0.012*"yes" + 0.012*"foreign" + 0.010*"fund" + 0.009*"currency" + 0.008*"resident" + 0.007*"monetary" + 0.007*"nonresident" + 0.007*"bank" + 0.006*"account"</t>
-  </si>
-  <si>
-    <t>0.027*"exchange" + 0.025*"foreign" + 0.019*"yes" + 0.012*"fund" + 0.012*"bank" + 0.011*"investment" + 0.011*"resident" + 0.010*"may" + 0.010*"abroad" + 0.010*"monetary"</t>
-  </si>
-  <si>
-    <t>0.031*"exchange" + 0.022*"yes" + 0.017*"foreign" + 0.015*"fund" + 0.014*"currency" + 0.013*"bank" + 0.012*"resident" + 0.011*"may" + 0.010*"international" + 0.010*"monetary"</t>
-  </si>
-  <si>
-    <t>0.023*"foreign" + 0.021*"exchange" + 0.015*"yes" + 0.012*"fund" + 0.010*"currency" + 0.009*"bank" + 0.008*"international" + 0.008*"transaction" + 0.007*"investment" + 0.007*"may"</t>
+    <t>0.142*"yes" + 0.069*"nonresident" + 0.055*"resident" + 0.047*"abroad" + 0.042*"issue" + 0.039*"security" + 0.032*"purchase" + 0.030*"investment" + 0.029*"sale" + 0.028*"locally"</t>
+  </si>
+  <si>
+    <t>0.037*"foreign" + 0.032*"account" + 0.031*"currency" + 0.029*"payment" + 0.023*"approval" + 0.021*"import" + 0.020*"may" + 0.020*"require" + 0.017*"export" + 0.017*"requirement"</t>
+  </si>
+  <si>
+    <t>0.053*"foreign" + 0.032*"exchange" + 0.025*"bank" + 0.018*"market" + 0.018*"may" + 0.018*"transaction" + 0.017*"investment" + 0.014*"asset" + 0.013*"company" + 0.013*"capital"</t>
+  </si>
+  <si>
+    <t>0.019*"imf" + 0.018*"information" + 0.015*"article" + 0.015*"agreement" + 0.014*"find" + 0.014*"online" + 0.014*"areaer" + 0.014*"database" + 0.014*"orgpagesreports" + 0.014*"elibraryareaer"</t>
+  </si>
+  <si>
+    <t>0.095*"exchange" + 0.065*"fund" + 0.063*"monetary" + 0.059*"international" + 0.040*"restriction" + 0.039*"rate" + 0.038*"arrangement" + 0.034*"report" + 0.027*"annual" + 0.019*"u"</t>
   </si>
 </sst>
 </file>
